--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_36_3.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_36_3.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_36_3_6</t>
+          <t>model_36_3_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999500859498645</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9989839846425922</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9998659057757291</v>
+        <v>0.9999958767705507</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9995738656720466</v>
+        <v>0.9999999999999594</v>
       </c>
       <c r="F2" t="n">
-        <v>0.999830154150289</v>
+        <v>0.9999981031681034</v>
       </c>
       <c r="G2" t="n">
-        <v>4.659257482799569e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0009484057382204143</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I2" t="n">
-        <v>5.252789763641531e-05</v>
+        <v>2.739585041047353e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>7.853551064695329e-05</v>
+        <v>2.012243610346874e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>6.55317041416843e-05</v>
+        <v>1.369792438776817e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0006662479691513253</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M2" t="n">
-        <v>0.006825875389134766</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000041308179423</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O2" t="n">
-        <v>0.007116467035960214</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P2" t="n">
-        <v>125.9481387359668</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q2" t="n">
-        <v>190.5485574539815</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_36_3_5</t>
+          <t>model_36_3_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999472858579244</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9989838586098234</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D3" t="n">
-        <v>0.999893422457885</v>
+        <v>0.9999958767705507</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9996386574238552</v>
+        <v>0.9999999999999594</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9998596022055376</v>
+        <v>0.9999981031681034</v>
       </c>
       <c r="G3" t="n">
-        <v>4.920633774424077e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0009485233842778835</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I3" t="n">
-        <v>4.174895863705716e-05</v>
+        <v>2.739585041047353e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>6.659454982732194e-05</v>
+        <v>2.012243610346874e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>5.416974712369589e-05</v>
+        <v>1.369792438776817e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0006784450353769175</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M3" t="n">
-        <v>0.007014722927118417</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N3" t="n">
-        <v>1.00004362549689</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O3" t="n">
-        <v>0.007313354204604126</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8389762536444</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q3" t="n">
-        <v>190.4393949716591</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_36_3_7</t>
+          <t>model_36_3_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999512973307919</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9989826262416854</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9998367050776701</v>
+        <v>0.9999958767705507</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9995045290426802</v>
+        <v>0.9999999999999594</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9997987709645039</v>
+        <v>0.9999981031681034</v>
       </c>
       <c r="G4" t="n">
-        <v>4.546180390569866e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0009496737458399443</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I4" t="n">
-        <v>6.396650572633557e-05</v>
+        <v>2.739585041047353e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>9.131408124460092e-05</v>
+        <v>2.012243610346874e-14</v>
       </c>
       <c r="K4" t="n">
-        <v>7.764029348546825e-05</v>
+        <v>1.369792438776817e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0006567470320746212</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M4" t="n">
-        <v>0.006742536904288968</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000040305657276</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O4" t="n">
-        <v>0.007029580659280084</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P4" t="n">
-        <v>125.9972761183271</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q4" t="n">
-        <v>190.5976948363417</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_36_3_4</t>
+          <t>model_36_3_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999425203903551</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9989817799836964</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999190602067931</v>
+        <v>0.9999958767705507</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9996980253381411</v>
+        <v>0.9999999999999594</v>
       </c>
       <c r="F5" t="n">
-        <v>0.999886790652798</v>
+        <v>0.9999981031681034</v>
       </c>
       <c r="G5" t="n">
-        <v>5.365469254017036e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00095046369052621</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I5" t="n">
-        <v>3.170604248915773e-05</v>
+        <v>2.739585041047353e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>5.565318894967027e-05</v>
+        <v>2.012243610346874e-14</v>
       </c>
       <c r="K5" t="n">
-        <v>4.3679615719414e-05</v>
+        <v>1.369792438776817e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0006940572345515235</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M5" t="n">
-        <v>0.007324936350588335</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N5" t="n">
-        <v>1.00004756933212</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O5" t="n">
-        <v>0.007636774055741471</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P5" t="n">
-        <v>125.6658832538249</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q5" t="n">
-        <v>190.2663019718396</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_36_3_8</t>
+          <t>model_36_3_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999513849706599</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9989804073910129</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9998072031294539</v>
+        <v>0.9999958767705507</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9994345446074983</v>
+        <v>0.9999999999999594</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9997670801359937</v>
+        <v>0.9999981031681034</v>
       </c>
       <c r="G6" t="n">
-        <v>4.537999593579768e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009517449455464459</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I6" t="n">
-        <v>7.552312066931013e-05</v>
+        <v>2.739585041047353e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001042120408639265</v>
+        <v>2.012243610346874e-14</v>
       </c>
       <c r="K6" t="n">
-        <v>8.986758076661829e-05</v>
+        <v>1.369792438776817e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0006495577515461368</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M6" t="n">
-        <v>0.006736467615582938</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N6" t="n">
-        <v>1.00004023312773</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O6" t="n">
-        <v>0.00702325298838868</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P6" t="n">
-        <v>126.0008783363438</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q6" t="n">
-        <v>190.6012970543584</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_36_3_9</t>
+          <t>model_36_3_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999506451036564</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9989775704981221</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9997778816228958</v>
+        <v>0.9999958767705507</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9993648936601133</v>
+        <v>0.9999999999999594</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9997355649708319</v>
+        <v>0.9999981031681034</v>
       </c>
       <c r="G7" t="n">
-        <v>4.607062930720015e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0009543930605347996</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I7" t="n">
-        <v>8.70090523222221e-05</v>
+        <v>2.739585041047353e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001170485395008473</v>
+        <v>2.012243610346874e-14</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001020270917754223</v>
+        <v>1.369792438776817e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0006433968509050724</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00678753484758643</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000040845431457</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O7" t="n">
-        <v>0.007076494258182304</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P7" t="n">
-        <v>125.9706698386102</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q7" t="n">
-        <v>190.5710885566248</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_36_3_3</t>
+          <t>model_36_3_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999353287466074</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9989766435214977</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999425934472961</v>
+        <v>0.9999958767705507</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997505128018336</v>
+        <v>0.9999999999999594</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999112711363358</v>
+        <v>0.9999981031681034</v>
       </c>
       <c r="G8" t="n">
-        <v>6.036777630208979e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0009552583525241094</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I8" t="n">
-        <v>2.248751234805049e-05</v>
+        <v>2.739585041047353e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>4.59798782275499e-05</v>
+        <v>2.012243610346874e-14</v>
       </c>
       <c r="K8" t="n">
-        <v>3.423429923286919e-05</v>
+        <v>1.369792438776817e-06</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0007124148983195596</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M8" t="n">
-        <v>0.007769670282714048</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000053521037291</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00810044123208393</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P8" t="n">
-        <v>125.4301102006404</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q8" t="n">
-        <v>190.030528918655</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_36_3_10</t>
+          <t>model_36_3_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999493169604482</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9989743253706712</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9997491543995416</v>
+        <v>0.9999958767705507</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9992966118912835</v>
+        <v>0.9999999999999594</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9997046767830986</v>
+        <v>0.9999981031681034</v>
       </c>
       <c r="G9" t="n">
-        <v>4.731039269330416e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0009574222445655756</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I9" t="n">
-        <v>9.826218910670744e-05</v>
+        <v>2.739585041047353e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001296327018908631</v>
+        <v>2.012243610346874e-14</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001139446957878676</v>
+        <v>1.369792438776817e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0006380217660660455</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M9" t="n">
-        <v>0.006878255061663834</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000041944584457</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O9" t="n">
-        <v>0.007171076619589716</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P9" t="n">
-        <v>125.917561135853</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q9" t="n">
-        <v>190.5179798538676</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_36_3_11</t>
+          <t>model_36_3_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999476637794735</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9989708599555098</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9997220016437957</v>
+        <v>0.9999958767705507</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9992317108891291</v>
+        <v>0.9999999999999594</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9996753854532333</v>
+        <v>0.9999981031681034</v>
       </c>
       <c r="G10" t="n">
-        <v>4.8853564566939e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0009606570575045789</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001088985694737817</v>
+        <v>2.739585041047353e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0001415937972810737</v>
+        <v>2.012243610346874e-14</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0001252461833774277</v>
+        <v>1.369792438776817e-06</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0006327598392114665</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M10" t="n">
-        <v>0.006989532499884309</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000043312734229</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O10" t="n">
-        <v>0.007287091368731288</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P10" t="n">
-        <v>125.8533664249942</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q10" t="n">
-        <v>190.4537851430089</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_36_3_2</t>
+          <t>model_36_3_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999250944463784</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9989673751953636</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999633568780036</v>
+        <v>0.9999958767705507</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9997947883710444</v>
+        <v>0.9999999999999594</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999323888049946</v>
+        <v>0.9999981031681034</v>
       </c>
       <c r="G11" t="n">
-        <v>6.992104633189834e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0009639099281378087</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I11" t="n">
-        <v>1.435398259520058e-05</v>
+        <v>2.739585041047353e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>3.781999950139431e-05</v>
+        <v>2.012243610346874e-14</v>
       </c>
       <c r="K11" t="n">
-        <v>2.608645919401223e-05</v>
+        <v>1.369792438776817e-06</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0007334758137058268</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M11" t="n">
-        <v>0.008361880549965919</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000061990802997</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O11" t="n">
-        <v>0.008717863116456968</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P11" t="n">
-        <v>125.1362877240558</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q11" t="n">
-        <v>189.7367064420704</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_36_3_12</t>
+          <t>model_36_3_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999457901526617</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9989672321538789</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9996962975574051</v>
+        <v>0.9999958767705507</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9991703287086149</v>
+        <v>0.9999999999999594</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9996476717786712</v>
+        <v>0.9999981031681034</v>
       </c>
       <c r="G12" t="n">
-        <v>5.060251295298899e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.000964043451084943</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001189674715916787</v>
+        <v>2.739585041047353e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001529063824803548</v>
+        <v>2.012243610346874e-14</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0001359389634787558</v>
+        <v>1.369792438776817e-06</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0006277758989715826</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M12" t="n">
-        <v>0.007113544331273194</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000044863321935</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O12" t="n">
-        <v>0.007416382640522278</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P12" t="n">
-        <v>125.7830186396029</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.3834373576176</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_36_3_13</t>
+          <t>model_36_3_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999437979410373</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9989635853173756</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9996721944974425</v>
+        <v>0.9999958767705507</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9991126478259629</v>
+        <v>0.9999999999999594</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9996216653902369</v>
+        <v>0.9999981031681034</v>
       </c>
       <c r="G13" t="n">
-        <v>5.246215505645211e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0009674476128831482</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0001284092135707006</v>
+        <v>2.739585041047353e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0001635368275688673</v>
+        <v>2.012243610346874e-14</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0001459730205697839</v>
+        <v>1.369792438776817e-06</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0006232238903751566</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M13" t="n">
-        <v>0.007243076353073473</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000046512048797</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O13" t="n">
-        <v>0.007551429108658846</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P13" t="n">
-        <v>125.7108370087519</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q13" t="n">
-        <v>190.3112557267665</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_36_3_14</t>
+          <t>model_36_3_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999417810837933</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9989599803202488</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9996499101979568</v>
+        <v>0.9999958767705507</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9990590802922447</v>
+        <v>0.9999999999999594</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9995975593946995</v>
+        <v>0.9999981031681034</v>
       </c>
       <c r="G14" t="n">
-        <v>5.434480276388195e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0009708127194599597</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I14" t="n">
-        <v>0.000137138503804067</v>
+        <v>2.739585041047353e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001734091925455663</v>
+        <v>2.012243610346874e-14</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0001552738481748166</v>
+        <v>1.369792438776817e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0006191246536321554</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M14" t="n">
-        <v>0.00737189275314569</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000048181172033</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O14" t="n">
-        <v>0.007685729489568846</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P14" t="n">
-        <v>125.640323148578</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q14" t="n">
-        <v>190.2407418665926</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_36_3_15</t>
+          <t>model_36_3_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999397739490331</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9989564632665445</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D15" t="n">
-        <v>0.999629280511403</v>
+        <v>0.9999958767705507</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9990093565392149</v>
+        <v>0.9999999999999594</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9995752113611378</v>
+        <v>0.9999981031681034</v>
       </c>
       <c r="G15" t="n">
-        <v>5.621837495951575e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0009740957347121399</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0001452196427901991</v>
+        <v>2.739585041047353e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0001825731581763901</v>
+        <v>2.012243610346874e-14</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0001638964004832946</v>
+        <v>1.369792438776817e-06</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0006153067899979628</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M15" t="n">
-        <v>0.007497891367545662</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000049842249076</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O15" t="n">
-        <v>0.007817092125836913</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P15" t="n">
-        <v>125.5725337958565</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q15" t="n">
-        <v>190.1729525138712</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_36_3_16</t>
+          <t>model_36_3_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999378215822844</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9989531003982356</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9996103223025529</v>
+        <v>0.9999958767705507</v>
       </c>
       <c r="E16" t="n">
-        <v>0.998963568949688</v>
+        <v>0.9999999999999594</v>
       </c>
       <c r="F16" t="n">
-        <v>0.999554645853614</v>
+        <v>0.9999981031681034</v>
       </c>
       <c r="G16" t="n">
-        <v>5.804082362043443e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009772348246655941</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0001526460241967309</v>
+        <v>2.739585041047353e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>0.000191011698535388</v>
+        <v>2.012243610346874e-14</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0001718311999315697</v>
+        <v>1.369792438776817e-06</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0006118012701873417</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M16" t="n">
-        <v>0.007618452836398898</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000051458000868</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O16" t="n">
-        <v>0.007942786146015878</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P16" t="n">
-        <v>125.5087278789665</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q16" t="n">
-        <v>190.1091465969811</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_36_3_1</t>
+          <t>model_36_3_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999110459428863</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9989526491057653</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999806095243503</v>
+        <v>0.9999958767705507</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9998298971069748</v>
+        <v>0.9999999999999594</v>
       </c>
       <c r="F17" t="n">
-        <v>0.999949533825357</v>
+        <v>0.9999981031681034</v>
       </c>
       <c r="G17" t="n">
-        <v>8.303470768381975e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.000977656086377171</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I17" t="n">
-        <v>7.595710595211726e-06</v>
+        <v>2.739585041047353e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>3.134954564777706e-05</v>
+        <v>2.012243610346874e-14</v>
       </c>
       <c r="K17" t="n">
-        <v>1.947138791731562e-05</v>
+        <v>1.369792438776817e-06</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0007567049363257762</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M17" t="n">
-        <v>0.009112338211667724</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000073617150715</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O17" t="n">
-        <v>0.00950026931447894</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P17" t="n">
-        <v>124.7925037454179</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q17" t="n">
-        <v>189.3929224634325</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_36_3_17</t>
+          <t>model_36_3_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999359455667816</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9989498993786631</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9995929254275617</v>
+        <v>0.9999958767705507</v>
       </c>
       <c r="E18" t="n">
-        <v>0.998921457041884</v>
+        <v>0.9999999999999594</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9995357586046951</v>
+        <v>0.9999981031681034</v>
       </c>
       <c r="G18" t="n">
-        <v>5.979200174474882e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0009802228359280928</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0001594607939879059</v>
+        <v>2.739585041047353e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0001987728197752276</v>
+        <v>2.012243610346874e-14</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0001791184760723052</v>
+        <v>1.369792438776817e-06</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0006086239248897858</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0077325288065903</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000053010565422</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O18" t="n">
-        <v>0.008061718566428141</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P18" t="n">
-        <v>125.4492773120817</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q18" t="n">
-        <v>190.0496960300963</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_36_3_18</t>
+          <t>model_36_3_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999341560410256</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9989468640472242</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D19" t="n">
-        <v>0.999576960311352</v>
+        <v>0.9999958767705507</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9988827892933342</v>
+        <v>0.9999999999999594</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9995184213729872</v>
+        <v>0.9999981031681034</v>
       </c>
       <c r="G19" t="n">
-        <v>6.146244548684749e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009830561845905906</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0001657147098040028</v>
+        <v>2.739585041047353e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0002058991909185978</v>
+        <v>2.012243610346874e-14</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0001858077083429473</v>
+        <v>1.369792438776817e-06</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0006057120684323381</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M19" t="n">
-        <v>0.007839798816732958</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000054491552255</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O19" t="n">
-        <v>0.008173555282982104</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P19" t="n">
-        <v>125.3941684243203</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q19" t="n">
-        <v>189.9945871423349</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_36_3_19</t>
+          <t>model_36_3_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999324765756662</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9989440447585213</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9995624502603849</v>
+        <v>0.9999958767705507</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9988475354771196</v>
+        <v>0.9999999999999594</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9995026377466265</v>
+        <v>0.9999981031681034</v>
       </c>
       <c r="G20" t="n">
-        <v>6.303015267979842e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.000985687866842307</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0001713986419497766</v>
+        <v>2.739585041047353e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0002123963827124707</v>
+        <v>2.012243610346874e-14</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0001918975123311237</v>
+        <v>1.369792438776817e-06</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0006030046871338627</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M20" t="n">
-        <v>0.007939153146261787</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000055881454621</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O20" t="n">
-        <v>0.00827713933201079</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P20" t="n">
-        <v>125.3437946642136</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q20" t="n">
-        <v>189.9442133822283</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_36_3_20</t>
+          <t>model_36_3_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999309032544315</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9989414241044494</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9995492345453668</v>
+        <v>0.9999958767705507</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9988153580211732</v>
+        <v>0.9999999999999594</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9994882439429298</v>
+        <v>0.9999981031681034</v>
       </c>
       <c r="G21" t="n">
-        <v>6.449877899164768e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009881341323850013</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0001765755519132224</v>
+        <v>2.739585041047353e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>0.000218326608860189</v>
+        <v>2.012243610346874e-14</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0001974510803867057</v>
+        <v>1.369792438776817e-06</v>
       </c>
       <c r="L21" t="n">
-        <v>0.000600510656951656</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M21" t="n">
-        <v>0.008031113185085096</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000057183513574</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O21" t="n">
-        <v>0.008373014300070331</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P21" t="n">
-        <v>125.2977285294076</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q21" t="n">
-        <v>189.8981472474222</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_36_3_21</t>
+          <t>model_36_3_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999294359324965</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9989389851833593</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9995372157706522</v>
+        <v>0.9999958767705507</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9987859816326307</v>
+        <v>0.9999999999999594</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9994751262028707</v>
+        <v>0.9999981031681034</v>
       </c>
       <c r="G22" t="n">
-        <v>6.586845960992271e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009904107581663066</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0001812835918855264</v>
+        <v>2.739585041047353e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0002237406051609171</v>
+        <v>2.012243610346874e-14</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0002025123042083204</v>
+        <v>1.369792438776817e-06</v>
       </c>
       <c r="L22" t="n">
-        <v>0.000598240245282605</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M22" t="n">
-        <v>0.008115938615460488</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000058397848968</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O22" t="n">
-        <v>0.008461450924629651</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P22" t="n">
-        <v>125.2557016817813</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q22" t="n">
-        <v>189.856120399796</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_36_3_22</t>
+          <t>model_36_3_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999280754820813</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9989367378874788</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9995262904836193</v>
+        <v>0.9999958767705507</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9987592758813327</v>
+        <v>0.9999999999999594</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9994632031553231</v>
+        <v>0.9999981031681034</v>
       </c>
       <c r="G23" t="n">
-        <v>6.713838035570801e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009925085102258536</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0001855632867197517</v>
+        <v>2.739585041047353e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0002286624095728432</v>
+        <v>2.012243610346874e-14</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0002071125792558624</v>
+        <v>1.369792438776817e-06</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0005961697069774125</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M23" t="n">
-        <v>0.008193801337334706</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000059523738967</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O23" t="n">
-        <v>0.008542628423772108</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P23" t="n">
-        <v>125.2175093801834</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q23" t="n">
-        <v>189.817928098198</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_36_3_23</t>
+          <t>model_36_3_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999268232472606</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9989346728029629</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9995164099863444</v>
+        <v>0.9999958767705507</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9987350788374543</v>
+        <v>0.9999999999999594</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9994524077153085</v>
+        <v>0.9999981031681034</v>
       </c>
       <c r="G24" t="n">
-        <v>6.830728659406729e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009944361759747211</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0001894337125510956</v>
+        <v>2.739585041047353e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>0.000233121865365267</v>
+        <v>2.012243610346874e-14</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0002112777889581813</v>
+        <v>1.369792438776817e-06</v>
       </c>
       <c r="L24" t="n">
-        <v>0.000594284355993456</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M24" t="n">
-        <v>0.008264822236083925</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000060560071233</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O24" t="n">
-        <v>0.008616672829214611</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P24" t="n">
-        <v>125.1829882239051</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q24" t="n">
-        <v>189.7834069419197</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_36_3_24</t>
+          <t>model_36_3_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999256652058923</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C25" t="n">
-        <v>0.998932774874984</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9995074163185267</v>
+        <v>0.9999958767705507</v>
       </c>
       <c r="E25" t="n">
-        <v>0.998713033254306</v>
+        <v>0.9999999999999594</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9994425769980988</v>
+        <v>0.9999981031681034</v>
       </c>
       <c r="G25" t="n">
-        <v>6.938826737916272e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009962078084335894</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0001929567461871256</v>
+        <v>2.739585041047353e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0002371848122260939</v>
+        <v>2.012243610346874e-14</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0002150707792066098</v>
+        <v>1.369792438776817e-06</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0005925689260170819</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M25" t="n">
-        <v>0.008329962027474238</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000061518450296</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O25" t="n">
-        <v>0.008684585756382366</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P25" t="n">
-        <v>125.1515855253611</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q25" t="n">
-        <v>189.7520042433757</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_36_3_0</t>
+          <t>model_36_3_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9998920336968925</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9989305137637292</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999930500127346</v>
+        <v>0.9999958767705507</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9998540405780757</v>
+        <v>0.9999999999999594</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999616124375621</v>
+        <v>0.9999981031681034</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0001007818047778402</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009983184565386782</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I26" t="n">
-        <v>2.722475346243254e-06</v>
+        <v>2.739585041047353e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>2.689996318675996e-05</v>
+        <v>2.012243610346874e-14</v>
       </c>
       <c r="K26" t="n">
-        <v>1.481109128470739e-05</v>
+        <v>1.369792438776817e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0007828913218932519</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01003901413376036</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000089351423261</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01046639574905866</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P26" t="n">
-        <v>124.4051054535538</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q26" t="n">
-        <v>189.0055241715685</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
   </sheetData>
